--- a/Submissions/TestData.xlsx
+++ b/Submissions/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD57D4-9141-4389-A473-1728970A7541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF692CE6-419B-4D2F-9260-25497E56BD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5844" windowWidth="23256" windowHeight="14016" activeTab="5" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
   </bookViews>
   <sheets>
     <sheet name="Ford1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="197">
   <si>
     <t>#script</t>
   </si>
@@ -652,31 +652,13 @@
     <t>AIG - American International Specialty Lines Company</t>
   </si>
   <si>
-    <t>NEW-000346</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_Login.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_NewSubmission.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_SearchForSubmission.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_UWQuestions.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_Modifiers.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_UnderLyingPolicies.py</t>
-  </si>
-  <si>
-    <t>Submissions\PyScripts\OneShield_Quotations.py</t>
+    <t>Oneshield2</t>
+  </si>
+  <si>
+    <t>NEW-000570</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -3624,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213A408-78BC-422E-A1DA-910439CF83F9}">
   <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3805,7 +3787,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3820,15 +3802,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
@@ -3845,13 +3827,13 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>140</v>
@@ -3862,7 +3844,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -3911,7 +3893,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -4074,13 +4056,13 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>98</v>
@@ -4231,7 +4213,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -8862,7 +8844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8754CC8D-BE98-49CC-A7EB-F30B152BC7E9}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/Submissions/TestData.xlsx
+++ b/Submissions/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF692CE6-419B-4D2F-9260-25497E56BD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6519E-9097-4490-8012-E32515D32528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
   </bookViews>
   <sheets>
     <sheet name="Ford1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="198">
   <si>
     <t>#script</t>
   </si>
@@ -655,10 +655,13 @@
     <t>Oneshield2</t>
   </si>
   <si>
-    <t>NEW-000570</t>
-  </si>
-  <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>NEW-000605</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -1159,24 +1162,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="9">
-          <cell r="C9"/>
-        </row>
-        <row r="10">
-          <cell r="C10"/>
-        </row>
-        <row r="12">
-          <cell r="C12"/>
-        </row>
-        <row r="14">
-          <cell r="C14"/>
-        </row>
-        <row r="15">
-          <cell r="C15"/>
-        </row>
-        <row r="17">
-          <cell r="C17"/>
-        </row>
         <row r="19">
           <cell r="C19" t="str">
             <v>XL</v>
@@ -3607,7 +3592,7 @@
   <dimension ref="A1:AZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3833,13 +3818,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>140</v>
       </c>
       <c r="J4" t="s">
         <v>159</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -3847,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G5" s="28">
         <f>G18*1000000</f>
@@ -3896,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="31">
         <f>'[1]Step 1'!$E$32</f>
@@ -4059,10 +4047,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>98</v>

--- a/Submissions/TestData.xlsx
+++ b/Submissions/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6519E-9097-4490-8012-E32515D32528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6FA93-D52A-4B2C-9BBF-BAF97843D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
   </bookViews>
   <sheets>
     <sheet name="Ford1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="202">
   <si>
     <t>#script</t>
   </si>
@@ -589,9 +589,6 @@
     <t>Odyssey Re - Hudson Insurance Co</t>
   </si>
   <si>
-    <t>Nationwide Group - Amco Insurance Company</t>
-  </si>
-  <si>
     <t>Munich Re - American Alternative Insurance Corporation</t>
   </si>
   <si>
@@ -662,6 +659,21 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>1 Low Risk</t>
+  </si>
+  <si>
+    <t>https://qa1.oms.oneshield.com/</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Munich Re - Digital Edge Insurance Company</t>
   </si>
 </sst>
 </file>
@@ -674,7 +686,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +751,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,7 +911,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,6 +958,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -1162,6 +1194,24 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
+        <row r="9">
+          <cell r="C9"/>
+        </row>
+        <row r="10">
+          <cell r="C10"/>
+        </row>
+        <row r="12">
+          <cell r="C12"/>
+        </row>
+        <row r="14">
+          <cell r="C14"/>
+        </row>
+        <row r="15">
+          <cell r="C15"/>
+        </row>
+        <row r="17">
+          <cell r="C17"/>
+        </row>
         <row r="19">
           <cell r="C19" t="str">
             <v>XL</v>
@@ -1858,7 +1908,7 @@
       <sheetName val="Step 2a"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="E8" t="str">
@@ -1867,198 +1917,35 @@
         </row>
         <row r="9">
           <cell r="E9">
-            <v>760000</v>
+            <v>109000</v>
           </cell>
         </row>
         <row r="10">
           <cell r="E10">
-            <v>330000</v>
+            <v>125000</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>165000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>0.65</v>
+            <v>600000</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>1</v>
+            <v>1.05</v>
           </cell>
         </row>
         <row r="54">
           <cell r="E54">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>0.93</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="E83">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="E84">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="E86">
-            <v>1.1000000000000001</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="E87">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="E88">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="E89">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="E90">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="E91">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="E92">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="E93">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="E94">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="E95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="E96">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="E97">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="E98">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="E99">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="E100">
-            <v>1.1000000000000001</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="E101">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="E102">
             <v>1</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="9">
-          <cell r="C9"/>
-        </row>
-        <row r="10">
-          <cell r="C10"/>
-        </row>
-        <row r="12">
-          <cell r="C12"/>
-        </row>
-        <row r="14">
-          <cell r="C14"/>
-        </row>
         <row r="15">
-          <cell r="C15"/>
-        </row>
-        <row r="17">
-          <cell r="C17"/>
+          <cell r="C15">
+            <v>300000</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="C19" t="str">
@@ -2067,7 +1954,7 @@
         </row>
         <row r="20">
           <cell r="C20">
-            <v>613480</v>
+            <v>400000</v>
           </cell>
         </row>
         <row r="22">
@@ -2082,7 +1969,7 @@
         </row>
         <row r="25">
           <cell r="C25">
-            <v>429436</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="27">
@@ -2097,7 +1984,7 @@
         </row>
         <row r="30">
           <cell r="C30">
-            <v>1252000</v>
+            <v>587000</v>
           </cell>
         </row>
         <row r="32">
@@ -2106,13 +1993,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="16">
           <cell r="B16" t="str">
@@ -2120,14 +2007,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3591,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213A408-78BC-422E-A1DA-910439CF83F9}">
   <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3778,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -3787,7 +3674,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -3795,7 +3682,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
@@ -3815,10 +3702,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>140</v>
@@ -3827,7 +3714,7 @@
         <v>159</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -3835,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G5" s="28">
         <f>G18*1000000</f>
@@ -3884,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" s="31">
         <f>'[1]Step 1'!$E$32</f>
@@ -4047,10 +3934,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>98</v>
@@ -4340,7 +4227,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{75F8F2A2-4D15-47CD-9044-4DE4BF0AC7AB}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://nam04.safelinks.protection.outlook.com/?url=https%3A%2F%2Fprotect-us.mimecast.com%2Fs%2FRJQFCERv9vIpXAUNw2Pt&amp;data=04%7C01%7Ccanderson%40oneshield.com%7C87b7ca088eb8467fa29e08d9df51e133%7Cf756873d727643d1a5b683b96980f900%7C0%7C0%7C637786365034776112%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=jF5CFUuy%2B3CMD%2ByW1UCCO0YB9K1cFkG0ZSeuzLetwBA%3D&amp;reserved=0" xr:uid="{10776F34-20E5-438E-9196-CB17335F35D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6251,7 +6138,7 @@
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6442,7 +6329,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -6451,7 +6338,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -6468,10 +6355,10 @@
         <v>74</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -6490,6 +6377,9 @@
       <c r="J4" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="7" t="s">
@@ -6500,15 +6390,15 @@
       </c>
       <c r="G5" s="28">
         <f>G18*1000000</f>
-        <v>760000000000</v>
+        <v>109000000000</v>
       </c>
       <c r="H5" s="29">
         <f>H18*1000000</f>
-        <v>330000000000</v>
+        <v>125000000000</v>
       </c>
       <c r="I5" s="29">
         <f>I18*1000000</f>
-        <v>165000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="J5" s="30" t="str">
         <f>'[4]XS Rating Step A Inputs'!$B$16</f>
@@ -6519,19 +6409,19 @@
         <v>MSFT</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>68</v>
@@ -6549,64 +6439,64 @@
       </c>
       <c r="H6" s="31">
         <f>'[4]Step 1'!$E$32</f>
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I6" s="31">
         <f>'[4]Step 1'!$E$33</f>
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="31">
         <f>'[4]Step 1'!$E$37</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="31">
         <f>'[4]Step 1'!$E$41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="31">
         <f>'[4]Step 1'!$E$44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>70</v>
       </c>
       <c r="Q6" s="31">
         <f>'[4]Step 1'!$E$48</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="31">
         <f>'[4]Step 1'!$E$52</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="31">
         <f>'[4]Step 1'!$E$54</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="V6" s="31">
         <f>'[4]Step 1'!$E$58</f>
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="W6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="X6" s="31">
         <f>'[4]Step 1'!$E$72</f>
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="25" t="s">
         <v>21</v>
@@ -6616,91 +6506,91 @@
       </c>
       <c r="AA6" s="31">
         <f>'[4]Step 1'!$E$81</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="31">
         <f>'[4]Step 1'!$E$82</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="31">
         <f>'[4]Step 1'!$E$83</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="31">
         <f>'[4]Step 1'!$E$84</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="31">
         <f>'[4]Step 1'!$E$85</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="31">
         <f>'[4]Step 1'!$E$86</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="31">
         <f>'[4]Step 1'!$E$87</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="31">
         <f>'[4]Step 1'!$E$88</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="31">
         <f>'[4]Step 1'!$E$89</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="31">
         <f>'[4]Step 1'!$E$90</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="31">
         <f>'[4]Step 1'!$E$91</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="31">
         <f>'[4]Step 1'!$E$92</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="31">
         <f>'[4]Step 1'!$E$93</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="31">
         <f>'[4]Step 1'!$E$94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="31">
         <f>'[4]Step 1'!$E$95</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="31">
         <f>'[4]Step 1'!$E$96</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="31">
         <f>'[4]Step 1'!$E$97</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="31">
         <f>'[4]Step 1'!$E$98</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="31">
         <f>'[4]Step 1'!$E$99</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="31">
         <f>'[4]Step 1'!$E$100</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="31">
         <f>'[4]Step 1'!$E$101</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="31">
         <f>'[4]Step 1'!$E$102</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:52">
@@ -6710,8 +6600,8 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="10">
-        <v>1</v>
+      <c r="G7" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>98</v>
@@ -6728,7 +6618,7 @@
       </c>
       <c r="L7" s="32">
         <f>'[4]Step 2'!$C$30</f>
-        <v>1252000</v>
+        <v>587000</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>119</v>
@@ -6759,7 +6649,7 @@
       </c>
       <c r="U7" s="32">
         <f>'[4]Step 2'!$C$25</f>
-        <v>429436</v>
+        <v>300000</v>
       </c>
       <c r="V7" s="21" t="s">
         <v>119</v>
@@ -6790,7 +6680,7 @@
       </c>
       <c r="AD7" s="32">
         <f>'[4]Step 2'!$C$20</f>
-        <v>613480</v>
+        <v>400000</v>
       </c>
       <c r="AE7" s="21" t="s">
         <v>119</v>
@@ -6818,7 +6708,7 @@
       </c>
       <c r="AM7" s="6">
         <f>'[4]Step 2'!$C$15</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AN7" s="7" t="s">
         <v>119</v>
@@ -6892,16 +6782,16 @@
         <v>48</v>
       </c>
       <c r="O8" s="7">
+        <v>25</v>
+      </c>
+      <c r="P8" s="7">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7">
         <v>10</v>
       </c>
-      <c r="P8" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>20</v>
-      </c>
-      <c r="R8" s="7">
-        <v>10</v>
       </c>
       <c r="S8" s="7">
         <v>50</v>
@@ -6909,18 +6799,6 @@
       <c r="T8" s="7">
         <v>65</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="V8" s="7">
-        <v>20</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="X8" s="7">
-        <v>10</v>
-      </c>
       <c r="Z8" s="7">
         <v>0.8</v>
       </c>
@@ -6937,7 +6815,7 @@
         <v>15000000</v>
       </c>
       <c r="AE8" s="7">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:52">
@@ -6949,15 +6827,15 @@
     <row r="18" spans="4:51">
       <c r="G18" s="6">
         <f>'[4]Step 1'!$E$9</f>
-        <v>760000</v>
+        <v>109000</v>
       </c>
       <c r="H18" s="6">
         <f>'[4]Step 1'!$E$10</f>
-        <v>330000</v>
+        <v>125000</v>
       </c>
       <c r="I18" s="6">
         <f>'[4]Step 1'!$E$11</f>
-        <v>165000</v>
+        <v>600000</v>
       </c>
       <c r="N18" s="7">
         <f>'[4]Step 2'!$C$32</f>
@@ -6997,7 +6875,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CF3C0CE7-3D8F-4408-9ED5-30A074F66904}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://nam04.safelinks.protection.outlook.com/?url=https%3A%2F%2Fprotect-us.mimecast.com%2Fs%2FRJQFCERv9vIpXAUNw2Pt&amp;data=04%7C01%7Ccanderson%40oneshield.com%7C87b7ca088eb8467fa29e08d9df51e133%7Cf756873d727643d1a5b683b96980f900%7C0%7C0%7C637786365034776112%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=jF5CFUuy%2B3CMD%2ByW1UCCO0YB9K1cFkG0ZSeuzLetwBA%3D&amp;reserved=0" xr:uid="{C51E246D-946E-470A-85F5-A365B05AA762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8832,8 +8710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8754CC8D-BE98-49CC-A7EB-F30B152BC7E9}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8842,9 +8720,11 @@
     <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="36">
         <v>1</v>
       </c>
@@ -8852,7 +8732,7 @@
         <v>98</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>99</v>
@@ -8860,16 +8740,16 @@
       <c r="E1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="36">
-        <v>100000</v>
+      <c r="F1" s="38">
+        <v>587000</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="36">
-        <v>10000000</v>
-      </c>
-      <c r="I1" s="36">
+      <c r="H1" s="39">
+        <v>15000000</v>
+      </c>
+      <c r="I1" s="39">
         <v>5000000</v>
       </c>
       <c r="J1" s="36"/>
@@ -8878,7 +8758,7 @@
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="36">
         <v>2</v>
       </c>
@@ -8886,7 +8766,7 @@
         <v>98</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>121</v>
@@ -8894,16 +8774,16 @@
       <c r="E2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="36">
-        <v>100000</v>
+      <c r="F2" s="38">
+        <v>300000</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="39">
         <v>10000000</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="39">
         <v>5000000</v>
       </c>
       <c r="J2" s="36"/>
@@ -8912,7 +8792,7 @@
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="36">
         <v>3</v>
       </c>
@@ -8920,7 +8800,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>121</v>
@@ -8928,16 +8808,16 @@
       <c r="E3" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="36">
-        <v>100000</v>
+      <c r="F3" s="38">
+        <v>400000</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="36">
-        <v>10000000</v>
-      </c>
-      <c r="I3" s="36">
+      <c r="H3" s="39">
+        <v>20000000</v>
+      </c>
+      <c r="I3" s="39">
         <v>5000000</v>
       </c>
       <c r="J3" s="36"/>
@@ -8946,7 +8826,7 @@
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="36">
         <v>4</v>
       </c>
@@ -8954,7 +8834,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>121</v>
@@ -8962,16 +8842,16 @@
       <c r="E4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="36">
-        <v>100000</v>
+      <c r="F4" s="38">
+        <v>300000</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="36">
-        <v>10000000</v>
-      </c>
-      <c r="I4" s="36">
+      <c r="H4" s="39">
+        <v>12000000</v>
+      </c>
+      <c r="I4" s="39">
         <v>5000000</v>
       </c>
       <c r="J4" s="36"/>
@@ -8988,7 +8868,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>121</v>
@@ -9022,7 +8902,7 @@
         <v>98</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>121</v>
@@ -9056,7 +8936,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>121</v>
@@ -9090,7 +8970,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>121</v>
@@ -9124,7 +9004,7 @@
         <v>98</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>121</v>
@@ -9158,7 +9038,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>121</v>
@@ -9192,7 +9072,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>121</v>
@@ -9226,7 +9106,7 @@
         <v>98</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>121</v>
@@ -9260,7 +9140,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>121</v>
@@ -9294,7 +9174,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>121</v>
@@ -9328,7 +9208,7 @@
         <v>98</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>121</v>
@@ -9362,7 +9242,7 @@
         <v>98</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>121</v>
@@ -9396,7 +9276,7 @@
         <v>98</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>121</v>
@@ -9430,7 +9310,7 @@
         <v>98</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>121</v>
@@ -9464,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>121</v>
@@ -9498,7 +9378,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>121</v>
@@ -9532,7 +9412,7 @@
         <v>98</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>121</v>

--- a/Submissions/TestData.xlsx
+++ b/Submissions/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\Falcon\Submissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudhirrayapureddy/OMSMac/Submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6FA93-D52A-4B2C-9BBF-BAF97843D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9255E531-7E1B-1640-A6D9-F484817C15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{E61BD633-247E-4C96-8561-C801128B9409}"/>
   </bookViews>
   <sheets>
     <sheet name="Ford1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="208">
   <si>
     <t>#script</t>
   </si>
@@ -670,10 +670,28 @@
     <t>00</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Munich Re - Digital Edge Insurance Company</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_Login.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_NewSubmission.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_SearchForSubmission.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_UWQuestions.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_Modifiers.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_UnderLyingPolicies.py</t>
+  </si>
+  <si>
+    <t>PyScripts/OneShield_Quotations.py</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1926,7 @@
       <sheetName val="Step 2a"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="E8" t="str">
@@ -1930,23 +1948,128 @@
             <v>600000</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="E32"/>
+        </row>
+        <row r="33">
+          <cell r="E33"/>
+        </row>
         <row r="37">
           <cell r="E37">
             <v>1.05</v>
           </cell>
         </row>
+        <row r="41">
+          <cell r="E41"/>
+        </row>
+        <row r="44">
+          <cell r="E44"/>
+        </row>
+        <row r="48">
+          <cell r="E48"/>
+        </row>
+        <row r="52">
+          <cell r="E52"/>
+        </row>
         <row r="54">
           <cell r="E54">
             <v>1</v>
           </cell>
         </row>
+        <row r="58">
+          <cell r="E58"/>
+        </row>
+        <row r="72">
+          <cell r="E72"/>
+        </row>
+        <row r="81">
+          <cell r="E81"/>
+        </row>
+        <row r="82">
+          <cell r="E82"/>
+        </row>
+        <row r="83">
+          <cell r="E83"/>
+        </row>
+        <row r="84">
+          <cell r="E84"/>
+        </row>
+        <row r="85">
+          <cell r="E85"/>
+        </row>
+        <row r="86">
+          <cell r="E86"/>
+        </row>
+        <row r="87">
+          <cell r="E87"/>
+        </row>
+        <row r="88">
+          <cell r="E88"/>
+        </row>
+        <row r="89">
+          <cell r="E89"/>
+        </row>
+        <row r="90">
+          <cell r="E90"/>
+        </row>
+        <row r="91">
+          <cell r="E91"/>
+        </row>
+        <row r="92">
+          <cell r="E92"/>
+        </row>
+        <row r="93">
+          <cell r="E93"/>
+        </row>
+        <row r="94">
+          <cell r="E94"/>
+        </row>
+        <row r="95">
+          <cell r="E95"/>
+        </row>
+        <row r="96">
+          <cell r="E96"/>
+        </row>
+        <row r="97">
+          <cell r="E97"/>
+        </row>
+        <row r="98">
+          <cell r="E98"/>
+        </row>
+        <row r="99">
+          <cell r="E99"/>
+        </row>
+        <row r="100">
+          <cell r="E100"/>
+        </row>
+        <row r="101">
+          <cell r="E101"/>
+        </row>
+        <row r="102">
+          <cell r="E102"/>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
+        <row r="9">
+          <cell r="C9"/>
+        </row>
+        <row r="10">
+          <cell r="C10"/>
+        </row>
+        <row r="12">
+          <cell r="C12"/>
+        </row>
+        <row r="14">
+          <cell r="C14"/>
+        </row>
         <row r="15">
           <cell r="C15">
             <v>300000</v>
           </cell>
         </row>
+        <row r="17">
+          <cell r="C17"/>
+        </row>
         <row r="19">
           <cell r="C19" t="str">
             <v>XL</v>
@@ -1993,13 +2116,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="16">
           <cell r="B16" t="str">
@@ -2007,14 +2130,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3478,25 +3601,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213A408-78BC-422E-A1DA-910439CF83F9}">
   <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -3659,7 +3782,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3679,7 +3802,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -3699,7 +3822,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -3719,7 +3842,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -3768,7 +3891,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -3931,13 +4054,13 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>98</v>
@@ -4088,7 +4211,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -4368,28 +4491,28 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="18.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="7"/>
+    <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="7"/>
+    <col min="5" max="5" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" style="7" customWidth="1"/>
     <col min="13" max="13" width="20" style="7" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="9.140625" style="7"/>
-    <col min="30" max="30" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="38" width="9.140625" style="7"/>
-    <col min="39" max="39" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="18" width="9.1640625" style="7"/>
+    <col min="19" max="19" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="9.1640625" style="7"/>
+    <col min="30" max="30" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="9.1640625" style="7"/>
+    <col min="39" max="39" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -5257,26 +5380,26 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="18.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="7"/>
+    <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="7"/>
+    <col min="5" max="5" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" style="7" customWidth="1"/>
     <col min="13" max="13" width="20" style="7" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="9.140625" style="7"/>
-    <col min="30" max="30" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="18" width="9.1640625" style="7"/>
+    <col min="19" max="19" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="9.1640625" style="7"/>
+    <col min="30" max="30" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -6141,26 +6264,26 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="18.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="7"/>
+    <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="7"/>
+    <col min="5" max="5" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" style="7" customWidth="1"/>
     <col min="13" max="13" width="20" style="7" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="9.140625" style="7"/>
-    <col min="30" max="30" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="18" width="9.1640625" style="7"/>
+    <col min="19" max="19" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="9.1640625" style="7"/>
+    <col min="30" max="30" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -7016,11 +7139,11 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8710,21 +8833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8754CC8D-BE98-49CC-A7EB-F30B152BC7E9}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="7"/>
+    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="36">
         <v>1</v>
       </c>
@@ -8758,7 +8881,7 @@
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="36">
         <v>2</v>
       </c>
@@ -8792,7 +8915,7 @@
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="36">
         <v>3</v>
       </c>
@@ -8826,7 +8949,7 @@
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="36">
         <v>4</v>
       </c>
@@ -9412,7 +9535,7 @@
         <v>98</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>121</v>
